--- a/ARQUIVO DUDA.xlsx
+++ b/ARQUIVO DUDA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8881F8B6-49BD-4C4E-85E0-B0AEB88305EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7A8332-731C-4B56-B47A-0D0CCAD23D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11895" yWindow="0" windowWidth="12210" windowHeight="12885" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="10">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -47,6 +47,9 @@
   <si>
     <t>A PAGAR</t>
   </si>
+  <si>
+    <t>Entregador</t>
+  </si>
 </sst>
 </file>
 
@@ -64,7 +67,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -89,8 +92,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -113,11 +122,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -167,6 +202,30 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -508,7 +567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -1458,7 +1517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C34" sqref="C2:D34"/>
     </sheetView>
   </sheetViews>
@@ -1942,10 +2001,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81939FE-DB46-4013-BE65-8C10CE14253F}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1953,9 +2012,10 @@
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" style="18" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1968,64 +2028,92 @@
       <c r="D1" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="E1" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="24"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="20">
         <v>45017</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="B2" s="21">
+        <v>1</v>
+      </c>
+      <c r="C2" s="22">
+        <v>7</v>
+      </c>
+      <c r="D2" s="22">
+        <v>0</v>
+      </c>
+      <c r="E2" s="21">
+        <v>54</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
         <v>45018</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="B3" s="21">
+        <v>2</v>
+      </c>
+      <c r="C3" s="22">
+        <v>17</v>
+      </c>
+      <c r="D3" s="22">
+        <v>0</v>
+      </c>
+      <c r="E3" s="21">
+        <v>54</v>
+      </c>
+      <c r="F3" s="21">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="20">
         <v>45019</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="B4" s="21">
+        <v>1</v>
+      </c>
+      <c r="C4" s="22">
+        <v>10</v>
+      </c>
+      <c r="D4" s="22">
+        <v>0</v>
+      </c>
+      <c r="E4" s="21">
+        <v>54</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
         <v>45020</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="21">
+        <v>1</v>
+      </c>
+      <c r="C5" s="22">
+        <v>10</v>
+      </c>
+      <c r="D5" s="22">
+        <v>0</v>
+      </c>
+      <c r="E5" s="21">
+        <v>55</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>45021</v>
       </c>
@@ -2038,50 +2126,74 @@
       <c r="D6" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="E6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="20">
         <v>45022</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="B7" s="21">
+        <v>2</v>
+      </c>
+      <c r="C7" s="22">
+        <v>20</v>
+      </c>
+      <c r="D7" s="22">
+        <v>0</v>
+      </c>
+      <c r="E7" s="21">
+        <v>54</v>
+      </c>
+      <c r="F7" s="21">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="20">
         <v>45023</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="B8" s="21">
+        <v>2</v>
+      </c>
+      <c r="C8" s="22">
+        <v>14</v>
+      </c>
+      <c r="D8" s="22">
+        <v>0</v>
+      </c>
+      <c r="E8" s="21">
+        <v>54</v>
+      </c>
+      <c r="F8" s="21">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="20">
         <v>45024</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="21">
+        <v>2</v>
+      </c>
+      <c r="C9" s="22">
+        <v>17</v>
+      </c>
+      <c r="D9" s="22">
+        <v>0</v>
+      </c>
+      <c r="E9" s="21">
+        <v>54</v>
+      </c>
+      <c r="F9" s="21">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>45025</v>
       </c>
@@ -2094,8 +2206,14 @@
       <c r="D10" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>45026</v>
       </c>
@@ -2108,22 +2226,34 @@
       <c r="D11" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="E11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="20">
         <v>45027</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="21">
+        <v>1</v>
+      </c>
+      <c r="C12" s="22">
+        <v>7</v>
+      </c>
+      <c r="D12" s="22">
+        <v>0</v>
+      </c>
+      <c r="E12" s="21">
+        <v>54</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>45028</v>
       </c>
@@ -2136,8 +2266,14 @@
       <c r="D13" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>45029</v>
       </c>
@@ -2150,167 +2286,246 @@
       <c r="D14" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="E14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="20">
         <v>45030</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+      <c r="B15" s="21">
+        <v>2</v>
+      </c>
+      <c r="C15" s="22">
+        <v>20</v>
+      </c>
+      <c r="D15" s="22">
+        <v>20</v>
+      </c>
+      <c r="E15" s="21">
+        <v>54</v>
+      </c>
+      <c r="F15" s="21">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="20">
         <v>45031</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
+      <c r="B16" s="21">
+        <v>1</v>
+      </c>
+      <c r="C16" s="22">
+        <v>7</v>
+      </c>
+      <c r="D16" s="22">
+        <v>7</v>
+      </c>
+      <c r="E16" s="21">
+        <v>54</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="20">
         <v>45032</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
+      <c r="B17" s="21">
+        <v>1</v>
+      </c>
+      <c r="C17" s="22">
+        <v>7</v>
+      </c>
+      <c r="D17" s="22">
+        <v>7</v>
+      </c>
+      <c r="E17" s="21">
+        <v>54</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="20">
         <v>45033</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="21">
+        <v>1</v>
+      </c>
+      <c r="C18" s="22">
+        <v>7</v>
+      </c>
+      <c r="D18" s="22">
+        <v>7</v>
+      </c>
+      <c r="E18" s="25">
+        <v>54</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>45034</v>
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>45035</v>
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>45036</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>45037</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>45038</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>45039</v>
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>45040</v>
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>45041</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>45042</v>
       </c>
       <c r="B27" s="16"/>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>45043</v>
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>45044</v>
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>45045</v>
       </c>
       <c r="B30" s="16"/>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>45046</v>
       </c>
       <c r="B31" s="16"/>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="D32" s="7">
-        <f>SUM(D2:D31)</f>
-        <v>0</v>
-      </c>
+        <f>SUM(D4:D31)</f>
+        <v>41</v>
+      </c>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2340,7 +2555,7 @@
       <c r="B2" s="19"/>
       <c r="C2" s="14">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!C32)</f>
-        <v>0</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2350,7 +2565,7 @@
       <c r="B3" s="19"/>
       <c r="C3" s="12">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
-        <v>0</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/ARQUIVO DUDA.xlsx
+++ b/ARQUIVO DUDA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7A8332-731C-4B56-B47A-0D0CCAD23D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49055946-49F1-46F6-9F84-1C7CBD53A9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="10">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -200,9 +200,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -212,12 +209,6 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -226,6 +217,15 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2003,8 +2003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81939FE-DB46-4013-BE65-8C10CE14253F}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2012,7 +2012,7 @@
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" style="18" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="27"/>
+    <col min="5" max="6" width="9.140625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2028,25 +2028,25 @@
       <c r="D1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="24"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="20">
+      <c r="A2" s="19">
         <v>45017</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="20">
         <v>1</v>
       </c>
-      <c r="C2" s="22">
-        <v>7</v>
-      </c>
-      <c r="D2" s="22">
-        <v>0</v>
-      </c>
-      <c r="E2" s="21">
+      <c r="C2" s="21">
+        <v>7</v>
+      </c>
+      <c r="D2" s="21">
+        <v>0</v>
+      </c>
+      <c r="E2" s="20">
         <v>54</v>
       </c>
       <c r="F2" s="10" t="s">
@@ -2054,39 +2054,39 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="20">
+      <c r="A3" s="19">
         <v>45018</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="20">
         <v>2</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="21">
         <v>17</v>
       </c>
-      <c r="D3" s="22">
-        <v>0</v>
-      </c>
-      <c r="E3" s="21">
+      <c r="D3" s="21">
+        <v>0</v>
+      </c>
+      <c r="E3" s="20">
         <v>54</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="20">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
+      <c r="A4" s="19">
         <v>45019</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="20">
         <v>1</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="21">
         <v>10</v>
       </c>
-      <c r="D4" s="22">
-        <v>0</v>
-      </c>
-      <c r="E4" s="21">
+      <c r="D4" s="21">
+        <v>0</v>
+      </c>
+      <c r="E4" s="20">
         <v>54</v>
       </c>
       <c r="F4" s="10" t="s">
@@ -2094,19 +2094,19 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
+      <c r="A5" s="19">
         <v>45020</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="20">
         <v>1</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="21">
         <v>10</v>
       </c>
-      <c r="D5" s="22">
-        <v>0</v>
-      </c>
-      <c r="E5" s="21">
+      <c r="D5" s="21">
+        <v>0</v>
+      </c>
+      <c r="E5" s="20">
         <v>55</v>
       </c>
       <c r="F5" s="10" t="s">
@@ -2134,62 +2134,62 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
+      <c r="A7" s="19">
         <v>45022</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="20">
         <v>2</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="21">
         <v>20</v>
       </c>
-      <c r="D7" s="22">
-        <v>0</v>
-      </c>
-      <c r="E7" s="21">
+      <c r="D7" s="21">
+        <v>0</v>
+      </c>
+      <c r="E7" s="20">
         <v>54</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="20">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
+      <c r="A8" s="19">
         <v>45023</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="20">
         <v>2</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="21">
         <v>14</v>
       </c>
-      <c r="D8" s="22">
-        <v>0</v>
-      </c>
-      <c r="E8" s="21">
+      <c r="D8" s="21">
+        <v>0</v>
+      </c>
+      <c r="E8" s="20">
         <v>54</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="20">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
+      <c r="A9" s="19">
         <v>45024</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="20">
         <v>2</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="21">
         <v>17</v>
       </c>
-      <c r="D9" s="22">
-        <v>0</v>
-      </c>
-      <c r="E9" s="21">
+      <c r="D9" s="21">
+        <v>0</v>
+      </c>
+      <c r="E9" s="20">
         <v>54</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="20">
         <v>54</v>
       </c>
     </row>
@@ -2234,19 +2234,19 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="20">
+      <c r="A12" s="19">
         <v>45027</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="20">
         <v>1</v>
       </c>
-      <c r="C12" s="22">
-        <v>7</v>
-      </c>
-      <c r="D12" s="22">
-        <v>0</v>
-      </c>
-      <c r="E12" s="21">
+      <c r="C12" s="21">
+        <v>7</v>
+      </c>
+      <c r="D12" s="21">
+        <v>0</v>
+      </c>
+      <c r="E12" s="20">
         <v>54</v>
       </c>
       <c r="F12" s="10" t="s">
@@ -2294,39 +2294,39 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="20">
+      <c r="A15" s="19">
         <v>45030</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="20">
         <v>2</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="21">
         <v>20</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="21">
         <v>20</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="20">
         <v>54</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="20">
         <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="20">
+      <c r="A16" s="19">
         <v>45031</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="20">
         <v>1</v>
       </c>
-      <c r="C16" s="22">
-        <v>7</v>
-      </c>
-      <c r="D16" s="22">
-        <v>7</v>
-      </c>
-      <c r="E16" s="21">
+      <c r="C16" s="21">
+        <v>7</v>
+      </c>
+      <c r="D16" s="21">
+        <v>7</v>
+      </c>
+      <c r="E16" s="20">
         <v>54</v>
       </c>
       <c r="F16" s="10" t="s">
@@ -2334,19 +2334,19 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="20">
+      <c r="A17" s="19">
         <v>45032</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="20">
         <v>1</v>
       </c>
-      <c r="C17" s="22">
-        <v>7</v>
-      </c>
-      <c r="D17" s="22">
-        <v>7</v>
-      </c>
-      <c r="E17" s="21">
+      <c r="C17" s="21">
+        <v>7</v>
+      </c>
+      <c r="D17" s="21">
+        <v>7</v>
+      </c>
+      <c r="E17" s="20">
         <v>54</v>
       </c>
       <c r="F17" s="10" t="s">
@@ -2354,19 +2354,19 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="20">
+      <c r="A18" s="19">
         <v>45033</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="20">
         <v>1</v>
       </c>
-      <c r="C18" s="22">
-        <v>7</v>
-      </c>
-      <c r="D18" s="22">
-        <v>7</v>
-      </c>
-      <c r="E18" s="25">
+      <c r="C18" s="21">
+        <v>7</v>
+      </c>
+      <c r="D18" s="21">
+        <v>8</v>
+      </c>
+      <c r="E18" s="22">
         <v>54</v>
       </c>
       <c r="F18" s="10" t="s">
@@ -2374,14 +2374,24 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
+      <c r="A19" s="9">
         <v>45034</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
+      <c r="B19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
@@ -2390,8 +2400,8 @@
       <c r="B20" s="16"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
@@ -2400,8 +2410,8 @@
       <c r="B21" s="16"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
@@ -2410,8 +2420,8 @@
       <c r="B22" s="16"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
@@ -2420,8 +2430,8 @@
       <c r="B23" s="16"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
@@ -2430,8 +2440,8 @@
       <c r="B24" s="16"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
@@ -2440,8 +2450,8 @@
       <c r="B25" s="16"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
@@ -2450,8 +2460,8 @@
       <c r="B26" s="16"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
@@ -2460,8 +2470,8 @@
       <c r="B27" s="16"/>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
@@ -2470,8 +2480,8 @@
       <c r="B28" s="16"/>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
@@ -2480,8 +2490,8 @@
       <c r="B29" s="16"/>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
@@ -2490,8 +2500,8 @@
       <c r="B30" s="16"/>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
@@ -2500,8 +2510,8 @@
       <c r="B31" s="16"/>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
@@ -2517,10 +2527,10 @@
       </c>
       <c r="D32" s="7">
         <f>SUM(D4:D31)</f>
-        <v>41</v>
-      </c>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
+        <v>42</v>
+      </c>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2536,33 +2546,33 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="14">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!C32)</f>
         <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="12">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
         <v>143</v>

--- a/ARQUIVO DUDA.xlsx
+++ b/ARQUIVO DUDA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49055946-49F1-46F6-9F84-1C7CBD53A9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B5D5EC-05BD-41C8-886D-4AF63D703E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9165" yWindow="885" windowWidth="11730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -1068,7 +1068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:D30"/>
     </sheetView>
   </sheetViews>
@@ -1517,7 +1517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C34" sqref="C2:D34"/>
     </sheetView>
   </sheetViews>
@@ -2003,8 +2003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81939FE-DB46-4013-BE65-8C10CE14253F}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2238,10 +2238,10 @@
         <v>45027</v>
       </c>
       <c r="B12" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="21">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D12" s="21">
         <v>0</v>
@@ -2519,11 +2519,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D32" s="7">
         <f>SUM(D4:D31)</f>
@@ -2565,7 +2565,7 @@
       <c r="B2" s="27"/>
       <c r="C2" s="14">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!C32)</f>
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2575,7 +2575,7 @@
       <c r="B3" s="27"/>
       <c r="C3" s="12">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/ARQUIVO DUDA.xlsx
+++ b/ARQUIVO DUDA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B5D5EC-05BD-41C8-886D-4AF63D703E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E64197-ABFE-4982-96FF-DC967839AC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9165" yWindow="885" windowWidth="11730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="10">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -2004,7 +2004,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A19" sqref="A19:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2394,14 +2394,24 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
+      <c r="A20" s="9">
         <v>45035</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
+      <c r="B20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="15">

--- a/ARQUIVO DUDA.xlsx
+++ b/ARQUIVO DUDA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E64197-ABFE-4982-96FF-DC967839AC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF16B64-5BD0-4F98-9E3D-C925DB9019E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9165" yWindow="885" windowWidth="11730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="10">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -2004,7 +2004,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:F20"/>
+      <selection activeCell="A20" sqref="A20:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2414,14 +2414,24 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
+      <c r="A21" s="9">
         <v>45036</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
+      <c r="B21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="15">

--- a/ARQUIVO DUDA.xlsx
+++ b/ARQUIVO DUDA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF16B64-5BD0-4F98-9E3D-C925DB9019E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B36CBBC-2F1C-42CE-954C-F6378E84AAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="10">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -2004,7 +2004,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:F21"/>
+      <selection activeCell="A21" sqref="A21:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2434,14 +2434,24 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
+      <c r="A22" s="9">
         <v>45037</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
+      <c r="B22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="15">

--- a/ARQUIVO DUDA.xlsx
+++ b/ARQUIVO DUDA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B36CBBC-2F1C-42CE-954C-F6378E84AAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565993FB-3A95-44FD-8A10-762DE8819B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="10">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -2004,7 +2004,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:F22"/>
+      <selection activeCell="A22" sqref="A22:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2454,14 +2454,24 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="15">
+      <c r="A23" s="9">
         <v>45038</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
+      <c r="B23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="15">

--- a/ARQUIVO DUDA.xlsx
+++ b/ARQUIVO DUDA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565993FB-3A95-44FD-8A10-762DE8819B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C771B611-7362-4437-9314-F4E68665395B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="10">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -2004,7 +2004,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:F23"/>
+      <selection activeCell="A23" sqref="A23:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2474,14 +2474,24 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="15">
+      <c r="A24" s="9">
         <v>45039</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
+      <c r="B24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="15">

--- a/ARQUIVO DUDA.xlsx
+++ b/ARQUIVO DUDA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C771B611-7362-4437-9314-F4E68665395B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CA03E0-4063-44ED-9932-BE835C683429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="10">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -2004,7 +2004,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:F24"/>
+      <selection activeCell="A25" sqref="A25:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2494,24 +2494,44 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="15">
+      <c r="A25" s="9">
         <v>45040</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
+      <c r="B25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="15">
+      <c r="A26" s="9">
         <v>45041</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
+      <c r="B26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="15">

--- a/ARQUIVO DUDA.xlsx
+++ b/ARQUIVO DUDA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CA03E0-4063-44ED-9932-BE835C683429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64AB3DBB-9CB7-444C-8C7D-473B71EF93C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="10">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -2004,7 +2004,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:F26"/>
+      <selection activeCell="A26" sqref="A26:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2534,14 +2534,24 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="15">
+      <c r="A27" s="9">
         <v>45042</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
+      <c r="B27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="15">

--- a/ARQUIVO DUDA.xlsx
+++ b/ARQUIVO DUDA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64AB3DBB-9CB7-444C-8C7D-473B71EF93C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE159CC0-0914-4A0F-85F4-D4F2908D541E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="10">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -2003,8 +2003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81939FE-DB46-4013-BE65-8C10CE14253F}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:F27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2554,14 +2554,24 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="15">
+      <c r="A28" s="9">
         <v>45043</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
+      <c r="B28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="15">

--- a/ARQUIVO DUDA.xlsx
+++ b/ARQUIVO DUDA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE159CC0-0914-4A0F-85F4-D4F2908D541E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A166F4-4632-44B4-8A1B-AA9D4C34196C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="10">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -67,7 +67,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -83,12 +83,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -152,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -190,6 +184,7 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -199,17 +194,7 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2004,15 +1989,15 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:F28"/>
+      <selection activeCell="F28" sqref="A28:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="18" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="24"/>
+    <col min="3" max="3" width="19.5703125" style="15" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2028,25 +2013,25 @@
       <c r="D1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="26"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="19">
+      <c r="A2" s="16">
         <v>45017</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="17">
         <v>1</v>
       </c>
-      <c r="C2" s="21">
-        <v>7</v>
-      </c>
-      <c r="D2" s="21">
-        <v>0</v>
-      </c>
-      <c r="E2" s="20">
+      <c r="C2" s="18">
+        <v>7</v>
+      </c>
+      <c r="D2" s="18">
+        <v>0</v>
+      </c>
+      <c r="E2" s="17">
         <v>54</v>
       </c>
       <c r="F2" s="10" t="s">
@@ -2054,39 +2039,39 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
+      <c r="A3" s="16">
         <v>45018</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="17">
         <v>2</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="18">
         <v>17</v>
       </c>
-      <c r="D3" s="21">
-        <v>0</v>
-      </c>
-      <c r="E3" s="20">
+      <c r="D3" s="18">
+        <v>0</v>
+      </c>
+      <c r="E3" s="17">
         <v>54</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="17">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+      <c r="A4" s="16">
         <v>45019</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="17">
         <v>1</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="18">
         <v>10</v>
       </c>
-      <c r="D4" s="21">
-        <v>0</v>
-      </c>
-      <c r="E4" s="20">
+      <c r="D4" s="18">
+        <v>0</v>
+      </c>
+      <c r="E4" s="17">
         <v>54</v>
       </c>
       <c r="F4" s="10" t="s">
@@ -2094,19 +2079,19 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
+      <c r="A5" s="16">
         <v>45020</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="17">
         <v>1</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="18">
         <v>10</v>
       </c>
-      <c r="D5" s="21">
-        <v>0</v>
-      </c>
-      <c r="E5" s="20">
+      <c r="D5" s="18">
+        <v>0</v>
+      </c>
+      <c r="E5" s="17">
         <v>55</v>
       </c>
       <c r="F5" s="10" t="s">
@@ -2134,62 +2119,62 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
+      <c r="A7" s="16">
         <v>45022</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="17">
         <v>2</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="18">
         <v>20</v>
       </c>
-      <c r="D7" s="21">
-        <v>0</v>
-      </c>
-      <c r="E7" s="20">
+      <c r="D7" s="18">
+        <v>0</v>
+      </c>
+      <c r="E7" s="17">
         <v>54</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="17">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+      <c r="A8" s="16">
         <v>45023</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="17">
         <v>2</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="18">
         <v>14</v>
       </c>
-      <c r="D8" s="21">
-        <v>0</v>
-      </c>
-      <c r="E8" s="20">
+      <c r="D8" s="18">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17">
         <v>54</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="17">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
+      <c r="A9" s="16">
         <v>45024</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="17">
         <v>2</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="18">
         <v>17</v>
       </c>
-      <c r="D9" s="21">
-        <v>0</v>
-      </c>
-      <c r="E9" s="20">
+      <c r="D9" s="18">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17">
         <v>54</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="17">
         <v>54</v>
       </c>
     </row>
@@ -2234,19 +2219,19 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
+      <c r="A12" s="16">
         <v>45027</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="17">
         <v>2</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="18">
         <v>15</v>
       </c>
-      <c r="D12" s="21">
-        <v>0</v>
-      </c>
-      <c r="E12" s="20">
+      <c r="D12" s="18">
+        <v>0</v>
+      </c>
+      <c r="E12" s="17">
         <v>54</v>
       </c>
       <c r="F12" s="10" t="s">
@@ -2294,39 +2279,39 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
+      <c r="A15" s="16">
         <v>45030</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="17">
         <v>2</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="18">
         <v>20</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="18">
         <v>20</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="17">
         <v>54</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="17">
         <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
+      <c r="A16" s="16">
         <v>45031</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="17">
         <v>1</v>
       </c>
-      <c r="C16" s="21">
-        <v>7</v>
-      </c>
-      <c r="D16" s="21">
-        <v>7</v>
-      </c>
-      <c r="E16" s="20">
+      <c r="C16" s="18">
+        <v>7</v>
+      </c>
+      <c r="D16" s="18">
+        <v>7</v>
+      </c>
+      <c r="E16" s="17">
         <v>54</v>
       </c>
       <c r="F16" s="10" t="s">
@@ -2334,19 +2319,19 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
+      <c r="A17" s="16">
         <v>45032</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="17">
         <v>1</v>
       </c>
-      <c r="C17" s="21">
-        <v>7</v>
-      </c>
-      <c r="D17" s="21">
-        <v>7</v>
-      </c>
-      <c r="E17" s="20">
+      <c r="C17" s="18">
+        <v>7</v>
+      </c>
+      <c r="D17" s="18">
+        <v>7</v>
+      </c>
+      <c r="E17" s="17">
         <v>54</v>
       </c>
       <c r="F17" s="10" t="s">
@@ -2354,19 +2339,19 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+      <c r="A18" s="16">
         <v>45033</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="17">
         <v>1</v>
       </c>
-      <c r="C18" s="21">
-        <v>7</v>
-      </c>
-      <c r="D18" s="21">
+      <c r="C18" s="18">
+        <v>7</v>
+      </c>
+      <c r="D18" s="18">
         <v>8</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="19">
         <v>54</v>
       </c>
       <c r="F18" s="10" t="s">
@@ -2574,34 +2559,64 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="15">
+      <c r="A29" s="9">
         <v>45044</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
+      <c r="B29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="15">
+      <c r="A30" s="9">
         <v>45045</v>
       </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
+      <c r="B30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="15">
+      <c r="A31" s="9">
         <v>45046</v>
       </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
+      <c r="B31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
@@ -2619,8 +2634,8 @@
         <f>SUM(D4:D31)</f>
         <v>42</v>
       </c>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2642,27 +2657,27 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="24"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="14">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!C32)</f>
         <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="27"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="12">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
         <v>151</v>
